--- a/Superficie_pop_2020.xlsx
+++ b/Superficie_pop_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08F8FE5-6C53-FB43-B08F-4F179C4B6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B5093C-51E5-6E41-8D1D-D51377C45C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Région</t>
   </si>
@@ -33,6 +33,9 @@
 (habitants)</t>
   </si>
   <si>
+    <t>Départements</t>
+  </si>
+  <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>379 707</t>
   </si>
   <si>
+    <t>Guadeloupe (971)</t>
+  </si>
+  <si>
     <t>Guyane</t>
   </si>
   <si>
@@ -105,6 +111,9 @@
     <t>288 086</t>
   </si>
   <si>
+    <t>Guyane (973)</t>
+  </si>
+  <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>359 821</t>
   </si>
   <si>
+    <t>Martinique (972)</t>
+  </si>
+  <si>
     <t>Mayotte</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t>278 926</t>
   </si>
   <si>
+    <t>Mayotte (976)</t>
+  </si>
+  <si>
     <t>Normandie</t>
   </si>
   <si>
@@ -186,6 +201,9 @@
     <t>856 858</t>
   </si>
   <si>
+    <t>Réunion (974)</t>
+  </si>
+  <si>
     <t>Sud-Provence-Alpes-Côte d’Azur</t>
   </si>
   <si>
@@ -199,6 +217,319 @@
   </si>
   <si>
     <t>IGN; Insee - Estimations de population au 1er janvier par région</t>
+  </si>
+  <si>
+    <t>Ain (01)</t>
+  </si>
+  <si>
+    <t>Allier (03)</t>
+  </si>
+  <si>
+    <t>Ardèche (07)</t>
+  </si>
+  <si>
+    <t>Cantal (15)</t>
+  </si>
+  <si>
+    <t>Drôme (26)</t>
+  </si>
+  <si>
+    <t>Isère (38)</t>
+  </si>
+  <si>
+    <t>Loire (42)</t>
+  </si>
+  <si>
+    <t>Haute-Loire (43)</t>
+  </si>
+  <si>
+    <t>Puy-de-Dôme (63)</t>
+  </si>
+  <si>
+    <t>Rhône (69D)</t>
+  </si>
+  <si>
+    <t>Métropole de Lyon (69M)</t>
+  </si>
+  <si>
+    <t>Savoie (73)</t>
+  </si>
+  <si>
+    <t>Haute-Savoie (74)</t>
+  </si>
+  <si>
+    <t>Côte-d'Or (21)</t>
+  </si>
+  <si>
+    <t>Doubs (25)</t>
+  </si>
+  <si>
+    <t>Jura (39)</t>
+  </si>
+  <si>
+    <t>Nièvre (58)</t>
+  </si>
+  <si>
+    <t>Haute-Saône (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saône-et-Loire (71)
+</t>
+  </si>
+  <si>
+    <t>Yonne (89)</t>
+  </si>
+  <si>
+    <t>Territoire de Belfort (90)</t>
+  </si>
+  <si>
+    <t>Côtes-d'Armor (22)</t>
+  </si>
+  <si>
+    <t>Finistère (29)</t>
+  </si>
+  <si>
+    <t>Ille-et-Vilaine (35)</t>
+  </si>
+  <si>
+    <t>Morbihan (56)</t>
+  </si>
+  <si>
+    <t>Cher (18)</t>
+  </si>
+  <si>
+    <t>Eure-et-Loir (28)</t>
+  </si>
+  <si>
+    <t>Indre (36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indre-et-Loire (37)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loir-et-Cher (41)
+</t>
+  </si>
+  <si>
+    <t>Loiret (45)</t>
+  </si>
+  <si>
+    <t>Corse-du-Sud (2A)</t>
+  </si>
+  <si>
+    <t>Haute-Corse (2B)</t>
+  </si>
+  <si>
+    <t>Ardennes (08)</t>
+  </si>
+  <si>
+    <t>Aube (10)</t>
+  </si>
+  <si>
+    <t>Marne (51)</t>
+  </si>
+  <si>
+    <t>Haute-Marne (52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meurthe-et-Moselle (54)
+</t>
+  </si>
+  <si>
+    <t>Meuse (55)</t>
+  </si>
+  <si>
+    <t>Moselle (57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bas-Rhin (67)
+</t>
+  </si>
+  <si>
+    <t>Haut-Rhin (68)</t>
+  </si>
+  <si>
+    <t>Vosges (88)</t>
+  </si>
+  <si>
+    <t>Aisne (02)</t>
+  </si>
+  <si>
+    <t>Nord (59)</t>
+  </si>
+  <si>
+    <t>Oise (60)</t>
+  </si>
+  <si>
+    <t>Pas-de-Calais (62)</t>
+  </si>
+  <si>
+    <t>Somme (80)</t>
+  </si>
+  <si>
+    <t>Paris (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seine-et-Marne (77)
+</t>
+  </si>
+  <si>
+    <t>Yvelines (78)</t>
+  </si>
+  <si>
+    <t>Essonne (91)</t>
+  </si>
+  <si>
+    <t>Hauts-de-Seine (92)</t>
+  </si>
+  <si>
+    <t>Seine-Saint-Denis (93)</t>
+  </si>
+  <si>
+    <t>Val-de-Marne (94)</t>
+  </si>
+  <si>
+    <t>Val-d'Oise (95)</t>
+  </si>
+  <si>
+    <t>Calvados (14)</t>
+  </si>
+  <si>
+    <t>Eure (27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Manche (50)
+</t>
+  </si>
+  <si>
+    <t>Orne (61)</t>
+  </si>
+  <si>
+    <t>Seine-Maritime (76)</t>
+  </si>
+  <si>
+    <t>Charente (14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charente-Maritime (17)
+</t>
+  </si>
+  <si>
+    <t>Corrèze (19)</t>
+  </si>
+  <si>
+    <t>Creuse (23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dordogne (24)
+</t>
+  </si>
+  <si>
+    <t>Gironde (33)</t>
+  </si>
+  <si>
+    <t>Landes (40)</t>
+  </si>
+  <si>
+    <t>Lot-et-Garonne (47)</t>
+  </si>
+  <si>
+    <t>Pyrénées-Atlantiques (64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux-Sèvres (79)
+</t>
+  </si>
+  <si>
+    <t>Vienne (86)</t>
+  </si>
+  <si>
+    <t>Haute-Vienne (87)</t>
+  </si>
+  <si>
+    <t>Ariège (09)</t>
+  </si>
+  <si>
+    <t>Aude (11)</t>
+  </si>
+  <si>
+    <t>Aveyron (12)</t>
+  </si>
+  <si>
+    <t>Gard (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haute-Garonne (31)
+</t>
+  </si>
+  <si>
+    <t>Gers (32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hérault (34)
+</t>
+  </si>
+  <si>
+    <t>Lot (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lozère (48)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hautes-Pyrénées (65)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrénées-Orientales (66)
+</t>
+  </si>
+  <si>
+    <t>Tarn (81)</t>
+  </si>
+  <si>
+    <t>Tarn-et-Garonne (82)</t>
+  </si>
+  <si>
+    <t>Loire-Atlantique (44)</t>
+  </si>
+  <si>
+    <t>Maine-et-Loire (49)</t>
+  </si>
+  <si>
+    <t>Mayenne (53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sarthe (72)
+</t>
+  </si>
+  <si>
+    <t>Vendée (85)</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence (04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hautes-Alpes (05)
+</t>
+  </si>
+  <si>
+    <t>Alpes-Maritimes (06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouches-du-Rhône (13)
+</t>
+  </si>
+  <si>
+    <t>Var (83)</t>
+  </si>
+  <si>
+    <t>Vaucluse (84)</t>
   </si>
 </sst>
 </file>
@@ -246,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,18 +592,32 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,6 +629,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -297,122 +648,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,18 +663,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E3E5815-6D06-4E42-BF06-F0427F8C90CC}" name="Tabella1" displayName="Tabella1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C19" xr:uid="{0E3E5815-6D06-4E42-BF06-F0427F8C90CC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C12F55F0-2CC4-FA43-B50B-1849E5FC1E38}" name="Région" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3C44A03F-9DB8-C44F-AC9B-9A512CB64BAF}" name="Superficie _x000a_(km² )" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{93E8674D-9814-CF4C-8BDA-7991B3344992}" name="Population _x000a_(habitants)" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,476 +965,695 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
     <col min="5" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:P1"/>
+  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Superficie_pop_2020.xlsx
+++ b/Superficie_pop_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EA2FC-8DE2-F743-B670-FD80652C00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021E6AD-395A-2540-B17F-02A82BD0D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Région</t>
   </si>
@@ -28,163 +28,55 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>69 711</t>
-  </si>
-  <si>
-    <t>8 064 146</t>
-  </si>
-  <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>47 784</t>
-  </si>
-  <si>
-    <t>2 794 517</t>
-  </si>
-  <si>
     <t>Bretagne</t>
   </si>
   <si>
-    <t>27 208</t>
-  </si>
-  <si>
-    <t>3 358 524</t>
-  </si>
-  <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>39 151</t>
-  </si>
-  <si>
-    <t>2 565 726</t>
-  </si>
-  <si>
     <t>Corse</t>
   </si>
   <si>
-    <t>8 680</t>
-  </si>
-  <si>
-    <t>345 867</t>
-  </si>
-  <si>
     <t>Grand Est</t>
   </si>
   <si>
-    <t>57 433</t>
-  </si>
-  <si>
-    <t>5 536 002</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1 703</t>
-  </si>
-  <si>
-    <t>379 707</t>
-  </si>
-  <si>
     <t>Guyane</t>
   </si>
   <si>
-    <t>83 534</t>
-  </si>
-  <si>
-    <t>288 086</t>
-  </si>
-  <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>31 813</t>
-  </si>
-  <si>
-    <t>5 987 795</t>
-  </si>
-  <si>
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>12 011</t>
-  </si>
-  <si>
-    <t>12 291 557</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>1 128</t>
-  </si>
-  <si>
-    <t>359 821</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>2 504</t>
-  </si>
-  <si>
-    <t>278 926</t>
-  </si>
-  <si>
     <t>Normandie</t>
   </si>
   <si>
-    <t>29 906</t>
-  </si>
-  <si>
-    <t>3 313 432</t>
-  </si>
-  <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>83 809</t>
-  </si>
-  <si>
-    <t>6 018 424</t>
-  </si>
-  <si>
     <t>Occitanie</t>
   </si>
   <si>
-    <t>72 724</t>
-  </si>
-  <si>
-    <t>5 951 850</t>
-  </si>
-  <si>
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>32 082</t>
-  </si>
-  <si>
-    <t>3 818 421</t>
-  </si>
-  <si>
     <t>Réunion</t>
   </si>
   <si>
-    <t>2 505</t>
-  </si>
-  <si>
-    <t>856 858</t>
-  </si>
-  <si>
     <t>Sud-Provence-Alpes-Côte d’Azur</t>
-  </si>
-  <si>
-    <t>31 400</t>
-  </si>
-  <si>
-    <t>5 077 583</t>
   </si>
   <si>
     <t>Sources :</t>
@@ -735,7 +627,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -749,21 +641,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>69711</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8064146</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -781,13 +673,13 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47784</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2794517</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
@@ -805,13 +697,13 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27208</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3358524</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8"/>
@@ -829,13 +721,13 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>39151</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2565726</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8"/>
@@ -853,13 +745,13 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8680</v>
+      </c>
+      <c r="C6" s="2">
+        <v>345867</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
@@ -877,13 +769,13 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>57433</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5536002</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -901,13 +793,13 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1703</v>
+      </c>
+      <c r="C8" s="2">
+        <v>379707</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
@@ -925,13 +817,13 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>83534</v>
+      </c>
+      <c r="C9" s="2">
+        <v>288086</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
@@ -949,13 +841,13 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31813</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5987795</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
@@ -973,13 +865,13 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12011</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12291557</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
@@ -997,13 +889,13 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1128</v>
+      </c>
+      <c r="C12" s="2">
+        <v>359821</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
@@ -1021,13 +913,13 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2504</v>
+      </c>
+      <c r="C13" s="2">
+        <v>278926</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
@@ -1045,13 +937,13 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29906</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3313432</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
@@ -1069,13 +961,13 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>83809</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6018424</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
@@ -1093,13 +985,13 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>72724</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5951850</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
@@ -1117,13 +1009,13 @@
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32082</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3818421</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
@@ -1141,13 +1033,13 @@
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2505</v>
+      </c>
+      <c r="C18" s="2">
+        <v>856858</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
@@ -1165,13 +1057,13 @@
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5077583</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
@@ -1189,10 +1081,10 @@
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
